--- a/HW2 Solutions.xlsx
+++ b/HW2 Solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Google Drive\UT Austin\College\Fall\Optimization 1\HW\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA62D5-6D41-4AFE-8DA7-E61CF9B665EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2F9F7-F41E-4A33-8B5F-C2334C6BDE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FA27810-1DCF-43F0-B136-C2ED39EBE2B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>4x + 5y max</t>
   </si>
@@ -166,6 +166,48 @@
   </si>
   <si>
     <t>cal</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>x1 + x2 + x3 + y1 + y2 + y3</t>
+  </si>
+  <si>
+    <t>x1 &lt;= 1*2</t>
+  </si>
+  <si>
+    <t>x2&lt;= (1.3*2)-x1 -&gt; -x1 + x2 &lt;= 2.6</t>
+  </si>
+  <si>
+    <t>x3&lt;= (1.4*2)-x1-x2 -&gt; -x1-x2+x3&lt;=2.8</t>
+  </si>
+  <si>
+    <t>y1 &lt;= 1*3</t>
+  </si>
+  <si>
+    <t>y2&lt;= (1.2*3)-y1 -&gt; -y1 + y2 &lt;= 3.6</t>
+  </si>
+  <si>
+    <t>y3&lt;= (1.6*3)-y1-y2 -&gt; -y1-y2+y3&lt;=4.8</t>
+  </si>
+  <si>
+    <t>x1 + y1 &gt;= 1.2</t>
+  </si>
+  <si>
+    <t>x2 + y2 &gt;= 1.5</t>
+  </si>
+  <si>
+    <t>x3 + y3 &gt;= 2</t>
+  </si>
+  <si>
+    <t>x1 + y1 &lt;= 2</t>
+  </si>
+  <si>
+    <t>x2 + y2 &lt;= 2</t>
+  </si>
+  <si>
+    <t>x3 + y3 &lt;= 3</t>
   </si>
 </sst>
 </file>
@@ -526,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83B304-4995-41A2-AF16-4BFD32E36D2F}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +762,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
@@ -731,6 +773,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -739,6 +782,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -747,6 +791,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -755,25 +800,105 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
